--- a/Data/StudyCases.xlsx
+++ b/Data/StudyCases.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tool\MlsTool\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liwen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD87B3D-0FCE-4618-BC30-42AB97BBFF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA4EA4-BB90-45B3-8C23-B776980305FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -64,16 +73,45 @@
   </si>
   <si>
     <t>https://api.github.com/repos/openai/gym/commits/788524a66b0e8dba37bfce6885be29fee1f8c73e</t>
+  </si>
+  <si>
+    <t>https://github.com/RediSearch/RediSearch/commit/1ca607745765122d67d75478645f9a7fe4034faa</t>
+  </si>
+  <si>
+    <t>['c', 'python', 'c++', 'shell']</t>
+  </si>
+  <si>
+    <t>FFI_IMI</t>
+  </si>
+  <si>
+    <t>https://api.github.com/repos/RediSearch/RediSearch</t>
+  </si>
+  <si>
+    <t>https://github.com/python-pillow/Pillow/commit/87934e22d056cb72ad6c7e9dc48e06d2a02e2dec</t>
+  </si>
+  <si>
+    <t>['python', 'c', 'html', 'shell']</t>
+  </si>
+  <si>
+    <t>https://api.github.com/repos/python-pillow/Pillow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,18 +168,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +594,45 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>58132544</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>5171600</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{1D434A26-FEFB-48A4-AA06-2D19D6A88415}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{36929595-2F68-4814-BC87-33094585AF98}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>